--- a/design/导入模板/信用卡.xlsx
+++ b/design/导入模板/信用卡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\LoanMgr\design\测试模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\LoanMgr\design\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,233 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patrick</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不能为空
+单元格的格式必须为日期并且日期的格式为yyyy/mm/dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单元格格式必须为日期并且日期格式为yyyy/mm/dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单元格的格式必须为日期并且日期的格式为yyyy/mm/dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Patrick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须为数字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="267">
   <si>
@@ -2623,7 +2850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2671,6 +2898,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3040,12 +3280,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3867,6 +4105,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
